--- a/3年後期/企画/3Dダンジョン案出し.xlsx
+++ b/3年後期/企画/3Dダンジョン案出し.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\3年後期\企画\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D687D3-5BCA-4C0D-9070-F01006596411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB1255-C9AF-4F0D-ACF2-C9878EF35CBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" activeTab="1" xr2:uid="{05F8C5C8-EB01-47A2-9125-E55B5DC8079E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="ランダム生成ダンジョン" sheetId="3" r:id="rId2"/>
+    <sheet name="ランダム生成ダンジョン" sheetId="3" r:id="rId1"/>
+    <sheet name="属性剣(レリシア)のギミック" sheetId="4" r:id="rId2"/>
     <sheet name="ギミック" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>ランダム生成は風来のシレンのような作りを参考に生成する</t>
     <rPh sb="4" eb="6">
@@ -700,7 +700,264 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>属性による攻撃は3回何かを攻撃すると無属性に戻る。</t>
+    <t>ギミック名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装内容</t>
+    <rPh sb="0" eb="4">
+      <t>ジッソウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの施行/行動</t>
+    <rPh sb="6" eb="8">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性スイッチ</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限時間タイマー</t>
+    <rPh sb="0" eb="4">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の属性バリア</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性連動床</t>
+    <rPh sb="0" eb="5">
+      <t>ゾクセイレンドウユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境ダメージの無効化</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁や床にある特定の属性で攻撃しないと開かない扉。一度開いたら維持される（開けるのに1回使用）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性で攻撃すると一時的に作動する装置（例：炎で氷を溶かし、水で機械を冷却）。タイマーが切れる前に次のギミックに進む必要がある（1回使用でタイマー開始）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>敵が特定の色の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>バリア</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を張っている。対応する属性（例：青バリアに雷属性）で攻撃するとバリアが剥がれ、通常攻撃が入るようになる（1回使用でバリア解除）。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床に2つの属性パネルがあり、一方に炎属性を当てると、離れたもう一方の床が氷属性に対応した床になる（またはその逆）。正しい連鎖を作ると奥の宝箱が出現（2回使用）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>部屋全体に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炎の床や毒沼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が設置されている。対応する属性（例：炎の床なら水属性）を剣に付与している間だけ、ダメージを受けずに通過できる。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「このフロアで炎属性が必要だ」と見当をつけ、クリスタルまで戻るか、属性を温存するかを判断させる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性の「使用回数」ではなく「使用時間」の制限を一時的に追加し、パズルにスピード感を生む。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒すための「手順」が必要になり、単なるゴリ押しを防げる。属性を温存しすぎて敵に囲まれるリスクも生まれる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性の**「組み合わせ」や「順番」**を考えさせることで、シンプルなパズルに深みを出す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性の**「移動手段」**としての用途を追加。無駄な戦闘を避け、早く通り抜けるか、属性を消費するかを選ばせる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋性の敵湧き</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋に入った瞬間固定数の敵が出現し、全ての敵を倒すと扉が開く。そのあとは、一切湧かない。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コテイスウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>イッサイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム生成された部屋ごとに敵の数を設定するだけで済みます。属性は戦闘かパズルのどちらか、または両方に戦略的に使える。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間経過による増援</t>
+    <rPh sb="0" eb="4">
+      <t>ジカンケイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゾウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋のクリア条件（例：属性スイッチを押す）が満たされていない状態で一定時間（30秒など）が経過すると、敵が数体増援される。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「無限湧き」の緊張感を再現しつつ、プレイヤーにパズルを急がせる動機を与える。増援数は少なめに設定することで属性切れを防ぐ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「汚染度」による敵の強化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロアに存在する**属性クリスタルを全て破壊（属性付与に利用）**すると、「汚染度」が上がり、残っている敵が強化される（例：移動速度アップ）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに「属性をいつ、どれだけ消費するか」という戦略的な選択を迫れる。ランダム生成されたクリスタルの数と、敵の配置数から簡単に難易度を調整できる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵関連のギミック案</t>
+    <rPh sb="0" eb="3">
+      <t>テキカンレン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性による攻撃は5回何かを攻撃すると無属性に戻る。
+(属性ごとに回数を変更するのもありかも)</t>
     <rPh sb="0" eb="2">
       <t>ゾクセイ</t>
     </rPh>
@@ -721,6 +978,15 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>モド</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -729,7 +995,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,13 +1020,33 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -780,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,6 +1086,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
@@ -810,6 +1099,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1125,133 +1426,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9691C04-49EE-4382-A5B0-C6215090A18F}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="21.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.69921875" customWidth="1"/>
-    <col min="3" max="3" width="40.69921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="45.19921875" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83509B83-389D-44DF-87C1-49B969B75FBA}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="90.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1267,6 +1505,189 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9691C04-49EE-4382-A5B0-C6215090A18F}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="27.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="50.69921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45.19921875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:C17"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
